--- a/BadSmell/results/features_score_predict.xlsx
+++ b/BadSmell/results/features_score_predict.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>lack of communication</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>poor planning</t>
+  </si>
+  <si>
+    <t>accuracy</t>
   </si>
 </sst>
 </file>
@@ -387,11 +391,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2002409168"/>
-        <c:axId val="-2004689552"/>
+        <c:axId val="-2012670608"/>
+        <c:axId val="-2012912800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2002409168"/>
+        <c:axId val="-2012670608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2004689552"/>
+        <c:crossAx val="-2012912800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -441,7 +445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2004689552"/>
+        <c:axId val="-2012912800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +480,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2002409168"/>
+        <c:crossAx val="-2012670608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -554,6 +558,257 @@
         <a:schemeClr val="dk1">
           <a:lumMod val="25000"/>
           <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>lack of communication</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>delayed delivery</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unbalanced contribution</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>poor planning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2016137488"/>
+        <c:axId val="-2011412048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2016137488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2011412048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2011412048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2016137488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -618,6 +873,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
   <cs:axisTitle>
@@ -1184,6 +1479,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1206,6 +2004,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1488,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1549,4 +2382,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.79</v>
+      </c>
+      <c r="C2">
+        <v>0.79</v>
+      </c>
+      <c r="D2">
+        <v>0.71</v>
+      </c>
+      <c r="E2">
+        <v>0.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/BadSmell/results/features_score_predict.xlsx
+++ b/BadSmell/results/features_score_predict.xlsx
@@ -192,7 +192,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -320,7 +319,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -391,11 +389,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2012670608"/>
-        <c:axId val="-2012912800"/>
+        <c:axId val="-2007117200"/>
+        <c:axId val="-2106418816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2012670608"/>
+        <c:axId val="-2007117200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012912800"/>
+        <c:crossAx val="-2106418816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -445,7 +443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2012912800"/>
+        <c:axId val="-2106418816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,10 +475,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2012670608"/>
+        <c:crossAx val="-2007117200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -494,7 +493,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -619,14 +617,76 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$1:$E$1</c:f>
@@ -670,20 +730,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2016137488"/>
-        <c:axId val="-2011412048"/>
+        <c:gapWidth val="65"/>
+        <c:axId val="-2007818224"/>
+        <c:axId val="-2085207616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2016137488"/>
+        <c:axId val="-2007818224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,11 +754,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -710,11 +770,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -725,7 +785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011412048"/>
+        <c:crossAx val="-2085207616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,22 +793,34 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2011412048"/>
+        <c:axId val="-2085207616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -757,34 +829,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2016137488"/>
+        <c:crossAx val="-2007818224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -801,14 +846,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1484,171 +1545,207 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1664,21 +1761,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1693,13 +1788,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1712,17 +1807,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1731,12 +1826,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1750,30 +1845,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1783,17 +1884,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1802,12 +1914,88 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -1815,64 +2003,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1880,14 +2010,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1899,12 +2029,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1913,14 +2043,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1929,9 +2058,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1949,9 +2078,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1962,11 +2091,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1974,14 +2108,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
